--- a/R/data/dictionaries/outcome/WP4/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/outcome/WP4/1_0/1_0_non_repeated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\WP4_harmonisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\EU-LifeCycle\4. WPs\WP 05\R LC\analysis-protocols\R\data\dictionaries\outcome\WP4\1_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E38441-3381-4753-9E0B-6AA4B945C96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1164">
   <si>
     <t>name</t>
   </si>
@@ -3507,13 +3506,19 @@
   </si>
   <si>
     <t>isMissing</t>
+  </si>
+  <si>
+    <t>eczema_m</t>
+  </si>
+  <si>
+    <t>Maternal history of eczema before pregnancy (of index child)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3550,6 +3555,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3559,7 +3570,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3610,6 +3621,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -3617,7 +3643,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3634,12 +3660,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{820E4C89-B4A7-4DD2-A9BD-BF8B41E7F66E}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4097,22 +4126,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG575"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A556" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A561" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C578" sqref="C578"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="74.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4181,7 +4210,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1154</v>
       </c>
@@ -4195,7 +4224,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1158</v>
       </c>
@@ -4209,7 +4238,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4253,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4268,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -4254,7 +4283,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -4269,7 +4298,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -4284,7 +4313,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
@@ -4299,7 +4328,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +4343,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -4329,7 +4358,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
@@ -4344,7 +4373,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
@@ -4359,7 +4388,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
@@ -4374,7 +4403,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -4389,7 +4418,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -4404,7 +4433,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
@@ -4419,7 +4448,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -4434,7 +4463,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
@@ -4449,7 +4478,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -4464,7 +4493,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
@@ -4479,7 +4508,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
@@ -4494,7 +4523,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
@@ -4509,7 +4538,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
@@ -4524,7 +4553,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
@@ -4539,7 +4568,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
@@ -4554,7 +4583,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
@@ -4569,7 +4598,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
@@ -4584,7 +4613,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>31</v>
       </c>
@@ -4599,7 +4628,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
@@ -4614,7 +4643,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
@@ -4629,7 +4658,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
@@ -4644,7 +4673,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
@@ -4659,7 +4688,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -4674,7 +4703,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>37</v>
       </c>
@@ -4689,7 +4718,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
@@ -4704,7 +4733,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>39</v>
       </c>
@@ -4719,7 +4748,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
@@ -4734,7 +4763,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>41</v>
       </c>
@@ -4749,7 +4778,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>42</v>
       </c>
@@ -4764,7 +4793,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>43</v>
       </c>
@@ -4779,7 +4808,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
@@ -4794,7 +4823,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
@@ -4809,7 +4838,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>46</v>
       </c>
@@ -4824,7 +4853,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>47</v>
       </c>
@@ -4839,7 +4868,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>48</v>
       </c>
@@ -4854,7 +4883,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>49</v>
       </c>
@@ -4869,7 +4898,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>50</v>
       </c>
@@ -4884,7 +4913,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>51</v>
       </c>
@@ -4899,7 +4928,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>52</v>
       </c>
@@ -4914,7 +4943,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>53</v>
       </c>
@@ -4929,7 +4958,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>54</v>
       </c>
@@ -4944,7 +4973,7 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>55</v>
       </c>
@@ -4959,7 +4988,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>56</v>
       </c>
@@ -4974,7 +5003,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>57</v>
       </c>
@@ -4989,7 +5018,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>58</v>
       </c>
@@ -5004,7 +5033,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>59</v>
       </c>
@@ -5019,7 +5048,7 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>60</v>
       </c>
@@ -5034,7 +5063,7 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>61</v>
       </c>
@@ -5049,7 +5078,7 @@
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>62</v>
       </c>
@@ -5064,7 +5093,7 @@
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>63</v>
       </c>
@@ -5079,7 +5108,7 @@
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>64</v>
       </c>
@@ -5094,7 +5123,7 @@
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>65</v>
       </c>
@@ -5109,7 +5138,7 @@
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>66</v>
       </c>
@@ -5124,7 +5153,7 @@
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>67</v>
       </c>
@@ -5139,7 +5168,7 @@
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>68</v>
       </c>
@@ -5154,7 +5183,7 @@
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>69</v>
       </c>
@@ -5169,7 +5198,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>70</v>
       </c>
@@ -5184,7 +5213,7 @@
       </c>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>71</v>
       </c>
@@ -5199,7 +5228,7 @@
       </c>
       <c r="E69"/>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>72</v>
       </c>
@@ -5214,7 +5243,7 @@
       </c>
       <c r="E70"/>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>73</v>
       </c>
@@ -5229,7 +5258,7 @@
       </c>
       <c r="E71"/>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>74</v>
       </c>
@@ -5244,7 +5273,7 @@
       </c>
       <c r="E72"/>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>75</v>
       </c>
@@ -5259,7 +5288,7 @@
       </c>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>76</v>
       </c>
@@ -5274,7 +5303,7 @@
       </c>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>77</v>
       </c>
@@ -5289,7 +5318,7 @@
       </c>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>78</v>
       </c>
@@ -5304,7 +5333,7 @@
       </c>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>79</v>
       </c>
@@ -5319,7 +5348,7 @@
       </c>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>80</v>
       </c>
@@ -5334,7 +5363,7 @@
       </c>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>81</v>
       </c>
@@ -5349,7 +5378,7 @@
       </c>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>82</v>
       </c>
@@ -5364,7 +5393,7 @@
       </c>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>83</v>
       </c>
@@ -5379,7 +5408,7 @@
       </c>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>84</v>
       </c>
@@ -5394,7 +5423,7 @@
       </c>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>85</v>
       </c>
@@ -5409,7 +5438,7 @@
       </c>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>86</v>
       </c>
@@ -5424,7 +5453,7 @@
       </c>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>87</v>
       </c>
@@ -5439,7 +5468,7 @@
       </c>
       <c r="E85"/>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>88</v>
       </c>
@@ -5454,7 +5483,7 @@
       </c>
       <c r="E86"/>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>89</v>
       </c>
@@ -5469,7 +5498,7 @@
       </c>
       <c r="E87"/>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>90</v>
       </c>
@@ -5484,7 +5513,7 @@
       </c>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>91</v>
       </c>
@@ -5499,7 +5528,7 @@
       </c>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>92</v>
       </c>
@@ -5514,7 +5543,7 @@
       </c>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>93</v>
       </c>
@@ -5529,7 +5558,7 @@
       </c>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>94</v>
       </c>
@@ -5544,7 +5573,7 @@
       </c>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>95</v>
       </c>
@@ -5559,7 +5588,7 @@
       </c>
       <c r="E93"/>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>96</v>
       </c>
@@ -5574,7 +5603,7 @@
       </c>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>97</v>
       </c>
@@ -5589,7 +5618,7 @@
       </c>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>98</v>
       </c>
@@ -5604,7 +5633,7 @@
       </c>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>99</v>
       </c>
@@ -5619,7 +5648,7 @@
       </c>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>100</v>
       </c>
@@ -5634,7 +5663,7 @@
       </c>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>101</v>
       </c>
@@ -5649,7 +5678,7 @@
       </c>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>102</v>
       </c>
@@ -5664,7 +5693,7 @@
       </c>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>103</v>
       </c>
@@ -5679,7 +5708,7 @@
       </c>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>104</v>
       </c>
@@ -5694,7 +5723,7 @@
       </c>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>105</v>
       </c>
@@ -5709,7 +5738,7 @@
       </c>
       <c r="E103"/>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>106</v>
       </c>
@@ -5724,7 +5753,7 @@
       </c>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>107</v>
       </c>
@@ -5738,7 +5767,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>108</v>
       </c>
@@ -5752,7 +5781,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>109</v>
       </c>
@@ -5766,7 +5795,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>110</v>
       </c>
@@ -5780,7 +5809,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>111</v>
       </c>
@@ -5794,7 +5823,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>112</v>
       </c>
@@ -5808,7 +5837,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>113</v>
       </c>
@@ -5822,7 +5851,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>114</v>
       </c>
@@ -5836,7 +5865,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>115</v>
       </c>
@@ -5850,7 +5879,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>116</v>
       </c>
@@ -5864,7 +5893,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>117</v>
       </c>
@@ -5878,7 +5907,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>118</v>
       </c>
@@ -5892,7 +5921,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>119</v>
       </c>
@@ -5906,7 +5935,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>120</v>
       </c>
@@ -5920,7 +5949,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>121</v>
       </c>
@@ -5934,7 +5963,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>122</v>
       </c>
@@ -5948,7 +5977,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>123</v>
       </c>
@@ -5962,7 +5991,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>124</v>
       </c>
@@ -5976,7 +6005,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>125</v>
       </c>
@@ -5990,7 +6019,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>126</v>
       </c>
@@ -6004,7 +6033,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>127</v>
       </c>
@@ -6018,7 +6047,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>128</v>
       </c>
@@ -6032,7 +6061,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>129</v>
       </c>
@@ -6046,7 +6075,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>130</v>
       </c>
@@ -6060,7 +6089,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>131</v>
       </c>
@@ -6074,7 +6103,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>132</v>
       </c>
@@ -6088,7 +6117,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>133</v>
       </c>
@@ -6102,7 +6131,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>134</v>
       </c>
@@ -6116,7 +6145,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>135</v>
       </c>
@@ -6130,7 +6159,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>136</v>
       </c>
@@ -6144,7 +6173,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>137</v>
       </c>
@@ -6158,7 +6187,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>138</v>
       </c>
@@ -6172,7 +6201,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>139</v>
       </c>
@@ -6186,7 +6215,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>140</v>
       </c>
@@ -6200,7 +6229,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>141</v>
       </c>
@@ -6214,7 +6243,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>142</v>
       </c>
@@ -6228,7 +6257,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>143</v>
       </c>
@@ -6242,7 +6271,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>144</v>
       </c>
@@ -6256,7 +6285,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>145</v>
       </c>
@@ -6270,7 +6299,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>146</v>
       </c>
@@ -6284,7 +6313,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>147</v>
       </c>
@@ -6298,7 +6327,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>148</v>
       </c>
@@ -6312,7 +6341,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>149</v>
       </c>
@@ -6326,7 +6355,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>150</v>
       </c>
@@ -6340,7 +6369,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>151</v>
       </c>
@@ -6354,7 +6383,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>152</v>
       </c>
@@ -6368,7 +6397,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>153</v>
       </c>
@@ -6382,7 +6411,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>154</v>
       </c>
@@ -6396,7 +6425,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>155</v>
       </c>
@@ -6410,7 +6439,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>156</v>
       </c>
@@ -6424,7 +6453,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>157</v>
       </c>
@@ -6438,7 +6467,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>158</v>
       </c>
@@ -6452,7 +6481,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>159</v>
       </c>
@@ -6466,7 +6495,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>160</v>
       </c>
@@ -6480,7 +6509,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>161</v>
       </c>
@@ -6494,7 +6523,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>162</v>
       </c>
@@ -6508,7 +6537,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>163</v>
       </c>
@@ -6522,7 +6551,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>164</v>
       </c>
@@ -6536,7 +6565,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>165</v>
       </c>
@@ -6550,7 +6579,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>166</v>
       </c>
@@ -6564,7 +6593,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>167</v>
       </c>
@@ -6578,7 +6607,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>168</v>
       </c>
@@ -6592,7 +6621,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>169</v>
       </c>
@@ -6606,7 +6635,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>170</v>
       </c>
@@ -6620,7 +6649,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>171</v>
       </c>
@@ -6634,7 +6663,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>172</v>
       </c>
@@ -6648,7 +6677,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>173</v>
       </c>
@@ -6662,7 +6691,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>174</v>
       </c>
@@ -6676,7 +6705,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>175</v>
       </c>
@@ -6690,7 +6719,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>176</v>
       </c>
@@ -6704,7 +6733,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>177</v>
       </c>
@@ -6718,7 +6747,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>178</v>
       </c>
@@ -6732,7 +6761,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>179</v>
       </c>
@@ -6746,7 +6775,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>180</v>
       </c>
@@ -6760,7 +6789,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>181</v>
       </c>
@@ -6774,7 +6803,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>182</v>
       </c>
@@ -6788,7 +6817,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>183</v>
       </c>
@@ -6802,7 +6831,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>184</v>
       </c>
@@ -6816,7 +6845,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>185</v>
       </c>
@@ -6830,7 +6859,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>186</v>
       </c>
@@ -6844,7 +6873,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>187</v>
       </c>
@@ -6858,7 +6887,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>188</v>
       </c>
@@ -6872,7 +6901,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>189</v>
       </c>
@@ -6886,7 +6915,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>190</v>
       </c>
@@ -6900,7 +6929,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>191</v>
       </c>
@@ -6914,7 +6943,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>192</v>
       </c>
@@ -6928,7 +6957,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>193</v>
       </c>
@@ -6942,7 +6971,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>194</v>
       </c>
@@ -6956,7 +6985,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>195</v>
       </c>
@@ -6970,7 +6999,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
         <v>196</v>
       </c>
@@ -6984,7 +7013,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
         <v>197</v>
       </c>
@@ -6998,7 +7027,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
         <v>198</v>
       </c>
@@ -7012,7 +7041,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>199</v>
       </c>
@@ -7026,7 +7055,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
         <v>200</v>
       </c>
@@ -7040,7 +7069,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>201</v>
       </c>
@@ -7054,7 +7083,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
         <v>202</v>
       </c>
@@ -7068,7 +7097,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
         <v>203</v>
       </c>
@@ -7082,7 +7111,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
         <v>204</v>
       </c>
@@ -7096,7 +7125,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>205</v>
       </c>
@@ -7110,7 +7139,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>206</v>
       </c>
@@ -7124,7 +7153,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
         <v>207</v>
       </c>
@@ -7138,7 +7167,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
         <v>208</v>
       </c>
@@ -7152,7 +7181,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
         <v>209</v>
       </c>
@@ -7166,7 +7195,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>210</v>
       </c>
@@ -7180,7 +7209,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
         <v>211</v>
       </c>
@@ -7194,7 +7223,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>212</v>
       </c>
@@ -7208,7 +7237,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
         <v>213</v>
       </c>
@@ -7222,7 +7251,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>214</v>
       </c>
@@ -7236,7 +7265,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>215</v>
       </c>
@@ -7250,7 +7279,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>216</v>
       </c>
@@ -7264,7 +7293,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
         <v>217</v>
       </c>
@@ -7278,7 +7307,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>218</v>
       </c>
@@ -7292,7 +7321,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>219</v>
       </c>
@@ -7306,7 +7335,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>220</v>
       </c>
@@ -7320,7 +7349,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
         <v>221</v>
       </c>
@@ -7334,7 +7363,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>222</v>
       </c>
@@ -7348,7 +7377,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>223</v>
       </c>
@@ -7362,7 +7391,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>224</v>
       </c>
@@ -7376,7 +7405,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>225</v>
       </c>
@@ -7390,7 +7419,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
         <v>226</v>
       </c>
@@ -7404,7 +7433,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
         <v>227</v>
       </c>
@@ -7418,7 +7447,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
         <v>228</v>
       </c>
@@ -7432,7 +7461,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
         <v>229</v>
       </c>
@@ -7446,7 +7475,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>230</v>
       </c>
@@ -7460,7 +7489,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>231</v>
       </c>
@@ -7474,7 +7503,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>232</v>
       </c>
@@ -7488,7 +7517,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>233</v>
       </c>
@@ -7502,7 +7531,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
         <v>234</v>
       </c>
@@ -7516,7 +7545,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>235</v>
       </c>
@@ -7530,7 +7559,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
         <v>236</v>
       </c>
@@ -7544,7 +7573,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
         <v>237</v>
       </c>
@@ -7558,7 +7587,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>238</v>
       </c>
@@ -7572,7 +7601,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
         <v>239</v>
       </c>
@@ -7586,7 +7615,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>240</v>
       </c>
@@ -7600,7 +7629,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
         <v>241</v>
       </c>
@@ -7614,7 +7643,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
         <v>242</v>
       </c>
@@ -7628,7 +7657,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
         <v>243</v>
       </c>
@@ -7642,7 +7671,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
         <v>244</v>
       </c>
@@ -7656,7 +7685,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
         <v>245</v>
       </c>
@@ -7670,7 +7699,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
         <v>246</v>
       </c>
@@ -7684,7 +7713,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
         <v>247</v>
       </c>
@@ -7698,7 +7727,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
         <v>248</v>
       </c>
@@ -7712,7 +7741,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>249</v>
       </c>
@@ -7726,7 +7755,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
         <v>250</v>
       </c>
@@ -7740,7 +7769,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
         <v>251</v>
       </c>
@@ -7754,7 +7783,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
         <v>252</v>
       </c>
@@ -7768,7 +7797,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>253</v>
       </c>
@@ -7782,7 +7811,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
         <v>254</v>
       </c>
@@ -7796,7 +7825,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
         <v>255</v>
       </c>
@@ -7810,7 +7839,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>256</v>
       </c>
@@ -7824,7 +7853,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
         <v>257</v>
       </c>
@@ -7838,7 +7867,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>258</v>
       </c>
@@ -7852,7 +7881,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
         <v>259</v>
       </c>
@@ -7866,7 +7895,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
         <v>260</v>
       </c>
@@ -7880,7 +7909,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
         <v>261</v>
       </c>
@@ -7894,7 +7923,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
         <v>262</v>
       </c>
@@ -7908,7 +7937,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
         <v>263</v>
       </c>
@@ -7922,7 +7951,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
         <v>264</v>
       </c>
@@ -7936,7 +7965,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
         <v>265</v>
       </c>
@@ -7950,7 +7979,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
         <v>266</v>
       </c>
@@ -7964,7 +7993,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
         <v>267</v>
       </c>
@@ -7978,7 +8007,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
         <v>268</v>
       </c>
@@ -7992,7 +8021,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
         <v>269</v>
       </c>
@@ -8006,7 +8035,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
         <v>270</v>
       </c>
@@ -8020,7 +8049,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
         <v>271</v>
       </c>
@@ -8034,7 +8063,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
         <v>272</v>
       </c>
@@ -8048,7 +8077,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
         <v>273</v>
       </c>
@@ -8062,7 +8091,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
         <v>274</v>
       </c>
@@ -8076,7 +8105,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
         <v>275</v>
       </c>
@@ -8090,7 +8119,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
         <v>276</v>
       </c>
@@ -8104,7 +8133,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
         <v>277</v>
       </c>
@@ -8118,7 +8147,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
         <v>278</v>
       </c>
@@ -8132,7 +8161,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
         <v>279</v>
       </c>
@@ -8146,7 +8175,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
         <v>280</v>
       </c>
@@ -8160,7 +8189,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
         <v>281</v>
       </c>
@@ -8174,7 +8203,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
         <v>282</v>
       </c>
@@ -8188,7 +8217,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
         <v>283</v>
       </c>
@@ -8202,7 +8231,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>284</v>
       </c>
@@ -8216,7 +8245,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>285</v>
       </c>
@@ -8230,7 +8259,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
         <v>286</v>
       </c>
@@ -8244,7 +8273,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
         <v>287</v>
       </c>
@@ -8258,7 +8287,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
         <v>288</v>
       </c>
@@ -8272,7 +8301,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
         <v>289</v>
       </c>
@@ -8286,7 +8315,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>290</v>
       </c>
@@ -8300,7 +8329,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>291</v>
       </c>
@@ -8314,7 +8343,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
         <v>292</v>
       </c>
@@ -8328,7 +8357,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
         <v>293</v>
       </c>
@@ -8342,7 +8371,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
         <v>294</v>
       </c>
@@ -8356,7 +8385,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
         <v>295</v>
       </c>
@@ -8370,7 +8399,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11" t="s">
         <v>296</v>
       </c>
@@ -8384,7 +8413,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="11" t="s">
         <v>297</v>
       </c>
@@ -8398,7 +8427,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
         <v>298</v>
       </c>
@@ -8412,7 +8441,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
         <v>299</v>
       </c>
@@ -8426,7 +8455,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>300</v>
       </c>
@@ -8440,7 +8469,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
         <v>301</v>
       </c>
@@ -8454,7 +8483,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
         <v>302</v>
       </c>
@@ -8468,7 +8497,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>303</v>
       </c>
@@ -8482,7 +8511,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
         <v>304</v>
       </c>
@@ -8496,7 +8525,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>305</v>
       </c>
@@ -8510,7 +8539,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
         <v>306</v>
       </c>
@@ -8524,7 +8553,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
         <v>307</v>
       </c>
@@ -8538,7 +8567,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
         <v>308</v>
       </c>
@@ -8552,7 +8581,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
         <v>309</v>
       </c>
@@ -8566,7 +8595,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
         <v>310</v>
       </c>
@@ -8580,7 +8609,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
         <v>311</v>
       </c>
@@ -8594,7 +8623,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
         <v>312</v>
       </c>
@@ -8608,7 +8637,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
         <v>313</v>
       </c>
@@ -8622,7 +8651,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>314</v>
       </c>
@@ -8636,7 +8665,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
         <v>315</v>
       </c>
@@ -8650,7 +8679,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
         <v>316</v>
       </c>
@@ -8664,7 +8693,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
         <v>317</v>
       </c>
@@ -8678,7 +8707,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
         <v>318</v>
       </c>
@@ -8692,7 +8721,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
         <v>319</v>
       </c>
@@ -8706,7 +8735,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
         <v>320</v>
       </c>
@@ -8720,7 +8749,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
         <v>321</v>
       </c>
@@ -8734,7 +8763,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
         <v>322</v>
       </c>
@@ -8748,7 +8777,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
         <v>323</v>
       </c>
@@ -8762,7 +8791,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
         <v>324</v>
       </c>
@@ -8776,7 +8805,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>325</v>
       </c>
@@ -8790,7 +8819,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
         <v>326</v>
       </c>
@@ -8804,7 +8833,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
         <v>327</v>
       </c>
@@ -8818,7 +8847,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
         <v>328</v>
       </c>
@@ -8832,7 +8861,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
         <v>329</v>
       </c>
@@ -8846,7 +8875,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
         <v>330</v>
       </c>
@@ -8860,7 +8889,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
         <v>331</v>
       </c>
@@ -8874,7 +8903,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11" t="s">
         <v>332</v>
       </c>
@@ -8888,7 +8917,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
         <v>333</v>
       </c>
@@ -8902,7 +8931,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
         <v>334</v>
       </c>
@@ -8916,7 +8945,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
         <v>335</v>
       </c>
@@ -8930,7 +8959,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
         <v>336</v>
       </c>
@@ -8944,7 +8973,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
         <v>337</v>
       </c>
@@ -8958,7 +8987,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
         <v>338</v>
       </c>
@@ -8972,7 +9001,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
         <v>339</v>
       </c>
@@ -8986,7 +9015,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
         <v>340</v>
       </c>
@@ -9000,7 +9029,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
         <v>341</v>
       </c>
@@ -9014,7 +9043,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
         <v>342</v>
       </c>
@@ -9028,7 +9057,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
         <v>343</v>
       </c>
@@ -9042,7 +9071,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
         <v>344</v>
       </c>
@@ -9056,7 +9085,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
         <v>345</v>
       </c>
@@ -9070,7 +9099,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
         <v>346</v>
       </c>
@@ -9084,7 +9113,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
         <v>347</v>
       </c>
@@ -9098,7 +9127,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
         <v>348</v>
       </c>
@@ -9112,7 +9141,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
         <v>349</v>
       </c>
@@ -9126,7 +9155,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
         <v>350</v>
       </c>
@@ -9140,7 +9169,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
         <v>351</v>
       </c>
@@ -9154,7 +9183,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
         <v>352</v>
       </c>
@@ -9168,7 +9197,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
         <v>353</v>
       </c>
@@ -9182,7 +9211,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
         <v>354</v>
       </c>
@@ -9196,7 +9225,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
         <v>355</v>
       </c>
@@ -9210,7 +9239,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
         <v>356</v>
       </c>
@@ -9224,7 +9253,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
         <v>357</v>
       </c>
@@ -9238,7 +9267,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
         <v>358</v>
       </c>
@@ -9252,7 +9281,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
         <v>359</v>
       </c>
@@ -9266,7 +9295,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
         <v>360</v>
       </c>
@@ -9280,7 +9309,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
         <v>361</v>
       </c>
@@ -9294,7 +9323,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
         <v>362</v>
       </c>
@@ -9308,7 +9337,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
         <v>363</v>
       </c>
@@ -9322,7 +9351,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
         <v>364</v>
       </c>
@@ -9336,7 +9365,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
         <v>365</v>
       </c>
@@ -9350,7 +9379,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
         <v>366</v>
       </c>
@@ -9364,7 +9393,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>367</v>
       </c>
@@ -9378,7 +9407,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
         <v>368</v>
       </c>
@@ -9392,7 +9421,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
         <v>369</v>
       </c>
@@ -9406,7 +9435,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
         <v>370</v>
       </c>
@@ -9420,7 +9449,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="11" t="s">
         <v>371</v>
       </c>
@@ -9434,7 +9463,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
         <v>372</v>
       </c>
@@ -9448,7 +9477,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="11" t="s">
         <v>373</v>
       </c>
@@ -9462,7 +9491,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="11" t="s">
         <v>374</v>
       </c>
@@ -9476,7 +9505,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
         <v>375</v>
       </c>
@@ -9490,7 +9519,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="11" t="s">
         <v>376</v>
       </c>
@@ -9504,7 +9533,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="11" t="s">
         <v>377</v>
       </c>
@@ -9518,7 +9547,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="11" t="s">
         <v>378</v>
       </c>
@@ -9532,7 +9561,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
         <v>379</v>
       </c>
@@ -9546,7 +9575,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="11" t="s">
         <v>380</v>
       </c>
@@ -9560,7 +9589,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="11" t="s">
         <v>381</v>
       </c>
@@ -9574,7 +9603,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="11" t="s">
         <v>382</v>
       </c>
@@ -9588,7 +9617,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="11" t="s">
         <v>383</v>
       </c>
@@ -9602,7 +9631,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="11" t="s">
         <v>384</v>
       </c>
@@ -9616,7 +9645,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="11" t="s">
         <v>385</v>
       </c>
@@ -9630,7 +9659,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="11" t="s">
         <v>386</v>
       </c>
@@ -9644,7 +9673,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="11" t="s">
         <v>387</v>
       </c>
@@ -9658,7 +9687,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
         <v>388</v>
       </c>
@@ -9672,7 +9701,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="11" t="s">
         <v>389</v>
       </c>
@@ -9686,7 +9715,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11" t="s">
         <v>390</v>
       </c>
@@ -9700,7 +9729,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="11" t="s">
         <v>391</v>
       </c>
@@ -9714,7 +9743,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="11" t="s">
         <v>392</v>
       </c>
@@ -9728,7 +9757,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="11" t="s">
         <v>393</v>
       </c>
@@ -9742,7 +9771,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="11" t="s">
         <v>394</v>
       </c>
@@ -9756,7 +9785,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="11" t="s">
         <v>395</v>
       </c>
@@ -9770,7 +9799,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="11" t="s">
         <v>396</v>
       </c>
@@ -9784,7 +9813,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="11" t="s">
         <v>397</v>
       </c>
@@ -9798,7 +9827,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="11" t="s">
         <v>398</v>
       </c>
@@ -9812,7 +9841,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="11" t="s">
         <v>399</v>
       </c>
@@ -9826,7 +9855,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="11" t="s">
         <v>400</v>
       </c>
@@ -9840,7 +9869,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="11" t="s">
         <v>401</v>
       </c>
@@ -9854,7 +9883,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="11" t="s">
         <v>402</v>
       </c>
@@ -9868,7 +9897,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="11" t="s">
         <v>403</v>
       </c>
@@ -9882,7 +9911,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="11" t="s">
         <v>404</v>
       </c>
@@ -9896,7 +9925,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="11" t="s">
         <v>405</v>
       </c>
@@ -9910,7 +9939,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="11" t="s">
         <v>406</v>
       </c>
@@ -9924,7 +9953,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="11" t="s">
         <v>407</v>
       </c>
@@ -9938,7 +9967,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="11" t="s">
         <v>408</v>
       </c>
@@ -9952,7 +9981,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="11" t="s">
         <v>409</v>
       </c>
@@ -9966,7 +9995,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="11" t="s">
         <v>410</v>
       </c>
@@ -9980,7 +10009,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="11" t="s">
         <v>411</v>
       </c>
@@ -9994,7 +10023,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="11" t="s">
         <v>412</v>
       </c>
@@ -10008,7 +10037,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
         <v>413</v>
       </c>
@@ -10022,7 +10051,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="11" t="s">
         <v>414</v>
       </c>
@@ -10036,7 +10065,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="11" t="s">
         <v>415</v>
       </c>
@@ -10050,7 +10079,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
         <v>416</v>
       </c>
@@ -10064,7 +10093,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="11" t="s">
         <v>417</v>
       </c>
@@ -10078,7 +10107,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="11" t="s">
         <v>418</v>
       </c>
@@ -10092,7 +10121,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
         <v>419</v>
       </c>
@@ -10106,7 +10135,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
         <v>420</v>
       </c>
@@ -10120,7 +10149,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
         <v>421</v>
       </c>
@@ -10134,7 +10163,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
         <v>422</v>
       </c>
@@ -10148,7 +10177,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
         <v>423</v>
       </c>
@@ -10162,7 +10191,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="11" t="s">
         <v>424</v>
       </c>
@@ -10176,7 +10205,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
         <v>425</v>
       </c>
@@ -10190,7 +10219,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="11" t="s">
         <v>426</v>
       </c>
@@ -10204,7 +10233,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11" t="s">
         <v>427</v>
       </c>
@@ -10218,7 +10247,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
         <v>428</v>
       </c>
@@ -10232,7 +10261,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="11" t="s">
         <v>429</v>
       </c>
@@ -10246,7 +10275,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
         <v>430</v>
       </c>
@@ -10260,7 +10289,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="11" t="s">
         <v>431</v>
       </c>
@@ -10274,7 +10303,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="11" t="s">
         <v>432</v>
       </c>
@@ -10288,7 +10317,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
         <v>433</v>
       </c>
@@ -10302,7 +10331,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
         <v>434</v>
       </c>
@@ -10316,7 +10345,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
         <v>435</v>
       </c>
@@ -10330,7 +10359,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="11" t="s">
         <v>436</v>
       </c>
@@ -10344,7 +10373,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
         <v>437</v>
       </c>
@@ -10358,7 +10387,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11" t="s">
         <v>438</v>
       </c>
@@ -10372,7 +10401,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="11" t="s">
         <v>439</v>
       </c>
@@ -10386,7 +10415,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="11" t="s">
         <v>440</v>
       </c>
@@ -10400,7 +10429,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="11" t="s">
         <v>441</v>
       </c>
@@ -10414,7 +10443,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="11" t="s">
         <v>442</v>
       </c>
@@ -10428,7 +10457,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="11" t="s">
         <v>443</v>
       </c>
@@ -10442,7 +10471,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="11" t="s">
         <v>444</v>
       </c>
@@ -10456,7 +10485,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
         <v>445</v>
       </c>
@@ -10470,7 +10499,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="11" t="s">
         <v>446</v>
       </c>
@@ -10484,7 +10513,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="11" t="s">
         <v>447</v>
       </c>
@@ -10498,7 +10527,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="11" t="s">
         <v>448</v>
       </c>
@@ -10512,7 +10541,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="11" t="s">
         <v>449</v>
       </c>
@@ -10526,7 +10555,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="11" t="s">
         <v>450</v>
       </c>
@@ -10540,7 +10569,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="11" t="s">
         <v>451</v>
       </c>
@@ -10554,7 +10583,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="11" t="s">
         <v>452</v>
       </c>
@@ -10568,7 +10597,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
         <v>453</v>
       </c>
@@ -10582,7 +10611,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="11" t="s">
         <v>454</v>
       </c>
@@ -10596,7 +10625,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="11" t="s">
         <v>455</v>
       </c>
@@ -10610,7 +10639,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="11" t="s">
         <v>456</v>
       </c>
@@ -10624,7 +10653,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
         <v>457</v>
       </c>
@@ -10638,7 +10667,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11" t="s">
         <v>458</v>
       </c>
@@ -10652,7 +10681,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
         <v>459</v>
       </c>
@@ -10666,7 +10695,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
         <v>460</v>
       </c>
@@ -10680,7 +10709,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
         <v>461</v>
       </c>
@@ -10694,7 +10723,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
         <v>462</v>
       </c>
@@ -10708,7 +10737,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="11" t="s">
         <v>463</v>
       </c>
@@ -10722,7 +10751,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
         <v>464</v>
       </c>
@@ -10736,7 +10765,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
         <v>465</v>
       </c>
@@ -10750,7 +10779,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="11" t="s">
         <v>466</v>
       </c>
@@ -10764,7 +10793,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11" t="s">
         <v>467</v>
       </c>
@@ -10778,7 +10807,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
         <v>468</v>
       </c>
@@ -10792,7 +10821,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="11" t="s">
         <v>469</v>
       </c>
@@ -10806,7 +10835,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
         <v>470</v>
       </c>
@@ -10820,7 +10849,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11" t="s">
         <v>471</v>
       </c>
@@ -10834,7 +10863,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="11" t="s">
         <v>472</v>
       </c>
@@ -10848,7 +10877,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
         <v>473</v>
       </c>
@@ -10862,7 +10891,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="11" t="s">
         <v>474</v>
       </c>
@@ -10876,7 +10905,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
         <v>475</v>
       </c>
@@ -10890,7 +10919,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
         <v>476</v>
       </c>
@@ -10904,7 +10933,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="11" t="s">
         <v>477</v>
       </c>
@@ -10918,7 +10947,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="11" t="s">
         <v>478</v>
       </c>
@@ -10932,7 +10961,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="11" t="s">
         <v>479</v>
       </c>
@@ -10946,7 +10975,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="11" t="s">
         <v>480</v>
       </c>
@@ -10960,7 +10989,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
         <v>481</v>
       </c>
@@ -10974,7 +11003,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
         <v>482</v>
       </c>
@@ -10988,7 +11017,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
         <v>483</v>
       </c>
@@ -11002,7 +11031,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
         <v>484</v>
       </c>
@@ -11016,7 +11045,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="11" t="s">
         <v>485</v>
       </c>
@@ -11030,7 +11059,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="11" t="s">
         <v>486</v>
       </c>
@@ -11044,7 +11073,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
         <v>487</v>
       </c>
@@ -11058,7 +11087,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
         <v>488</v>
       </c>
@@ -11072,7 +11101,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="11" t="s">
         <v>489</v>
       </c>
@@ -11086,7 +11115,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
         <v>490</v>
       </c>
@@ -11100,7 +11129,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="11" t="s">
         <v>491</v>
       </c>
@@ -11114,7 +11143,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="11" t="s">
         <v>492</v>
       </c>
@@ -11128,7 +11157,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
         <v>493</v>
       </c>
@@ -11142,7 +11171,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
         <v>494</v>
       </c>
@@ -11156,7 +11185,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="11" t="s">
         <v>495</v>
       </c>
@@ -11170,7 +11199,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
         <v>496</v>
       </c>
@@ -11184,7 +11213,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
         <v>497</v>
       </c>
@@ -11198,7 +11227,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="11" t="s">
         <v>498</v>
       </c>
@@ -11212,7 +11241,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="11" t="s">
         <v>499</v>
       </c>
@@ -11226,7 +11255,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
         <v>500</v>
       </c>
@@ -11240,7 +11269,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
         <v>501</v>
       </c>
@@ -11254,7 +11283,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="11" t="s">
         <v>502</v>
       </c>
@@ -11268,7 +11297,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="11" t="s">
         <v>503</v>
       </c>
@@ -11282,7 +11311,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="11" t="s">
         <v>504</v>
       </c>
@@ -11296,7 +11325,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="11" t="s">
         <v>505</v>
       </c>
@@ -11310,7 +11339,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="11" t="s">
         <v>506</v>
       </c>
@@ -11324,7 +11353,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="11" t="s">
         <v>507</v>
       </c>
@@ -11338,7 +11367,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="11" t="s">
         <v>508</v>
       </c>
@@ -11352,7 +11381,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="11" t="s">
         <v>509</v>
       </c>
@@ -11366,7 +11395,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="11" t="s">
         <v>510</v>
       </c>
@@ -11380,7 +11409,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="11" t="s">
         <v>511</v>
       </c>
@@ -11394,7 +11423,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="11" t="s">
         <v>512</v>
       </c>
@@ -11408,7 +11437,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="11" t="s">
         <v>513</v>
       </c>
@@ -11422,7 +11451,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="11" t="s">
         <v>514</v>
       </c>
@@ -11436,7 +11465,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="11" t="s">
         <v>515</v>
       </c>
@@ -11450,7 +11479,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
         <v>516</v>
       </c>
@@ -11464,7 +11493,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="11" t="s">
         <v>517</v>
       </c>
@@ -11478,7 +11507,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="11" t="s">
         <v>518</v>
       </c>
@@ -11492,7 +11521,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="11" t="s">
         <v>519</v>
       </c>
@@ -11506,7 +11535,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="11" t="s">
         <v>520</v>
       </c>
@@ -11520,7 +11549,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="11" t="s">
         <v>521</v>
       </c>
@@ -11534,7 +11563,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="11" t="s">
         <v>522</v>
       </c>
@@ -11548,7 +11577,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
         <v>523</v>
       </c>
@@ -11562,7 +11591,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="11" t="s">
         <v>524</v>
       </c>
@@ -11576,7 +11605,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="11" t="s">
         <v>525</v>
       </c>
@@ -11590,7 +11619,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="11" t="s">
         <v>526</v>
       </c>
@@ -11604,7 +11633,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="11" t="s">
         <v>527</v>
       </c>
@@ -11618,7 +11647,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="11" t="s">
         <v>528</v>
       </c>
@@ -11632,7 +11661,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="11" t="s">
         <v>529</v>
       </c>
@@ -11646,7 +11675,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="11" t="s">
         <v>530</v>
       </c>
@@ -11660,7 +11689,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="11" t="s">
         <v>531</v>
       </c>
@@ -11674,7 +11703,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="11" t="s">
         <v>532</v>
       </c>
@@ -11688,7 +11717,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="11" t="s">
         <v>533</v>
       </c>
@@ -11702,7 +11731,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="11" t="s">
         <v>534</v>
       </c>
@@ -11716,7 +11745,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="11" t="s">
         <v>535</v>
       </c>
@@ -11730,7 +11759,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="11" t="s">
         <v>536</v>
       </c>
@@ -11744,7 +11773,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="11" t="s">
         <v>537</v>
       </c>
@@ -11758,7 +11787,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="11" t="s">
         <v>538</v>
       </c>
@@ -11772,7 +11801,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="11" t="s">
         <v>539</v>
       </c>
@@ -11786,7 +11815,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
         <v>540</v>
       </c>
@@ -11800,7 +11829,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="11" t="s">
         <v>541</v>
       </c>
@@ -11814,7 +11843,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="11" t="s">
         <v>542</v>
       </c>
@@ -11828,7 +11857,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="11" t="s">
         <v>543</v>
       </c>
@@ -11842,7 +11871,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="11" t="s">
         <v>544</v>
       </c>
@@ -11856,7 +11885,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="11" t="s">
         <v>545</v>
       </c>
@@ -11870,7 +11899,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="11" t="s">
         <v>546</v>
       </c>
@@ -11884,7 +11913,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="11" t="s">
         <v>547</v>
       </c>
@@ -11898,7 +11927,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="11" t="s">
         <v>548</v>
       </c>
@@ -11912,7 +11941,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="11" t="s">
         <v>549</v>
       </c>
@@ -11926,7 +11955,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="11" t="s">
         <v>550</v>
       </c>
@@ -11940,7 +11969,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="11" t="s">
         <v>551</v>
       </c>
@@ -11954,7 +11983,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="11" t="s">
         <v>552</v>
       </c>
@@ -11968,7 +11997,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="11" t="s">
         <v>553</v>
       </c>
@@ -11982,7 +12011,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="11" t="s">
         <v>554</v>
       </c>
@@ -11996,7 +12025,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="11" t="s">
         <v>555</v>
       </c>
@@ -12010,7 +12039,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="11" t="s">
         <v>556</v>
       </c>
@@ -12024,7 +12053,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="11" t="s">
         <v>557</v>
       </c>
@@ -12038,7 +12067,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="11" t="s">
         <v>558</v>
       </c>
@@ -12052,7 +12081,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="11" t="s">
         <v>559</v>
       </c>
@@ -12066,7 +12095,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
         <v>560</v>
       </c>
@@ -12080,7 +12109,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="11" t="s">
         <v>561</v>
       </c>
@@ -12094,7 +12123,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="11" t="s">
         <v>562</v>
       </c>
@@ -12108,7 +12137,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="11" t="s">
         <v>563</v>
       </c>
@@ -12122,7 +12151,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="11" t="s">
         <v>564</v>
       </c>
@@ -12136,7 +12165,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="11" t="s">
         <v>565</v>
       </c>
@@ -12150,7 +12179,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="11" t="s">
         <v>566</v>
       </c>
@@ -12164,7 +12193,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="11" t="s">
         <v>567</v>
       </c>
@@ -12178,7 +12207,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
         <v>568</v>
       </c>
@@ -12192,7 +12221,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="11" t="s">
         <v>569</v>
       </c>
@@ -12206,7 +12235,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="11" t="s">
         <v>570</v>
       </c>
@@ -12220,7 +12249,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="11" t="s">
         <v>571</v>
       </c>
@@ -12234,7 +12263,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="11" t="s">
         <v>572</v>
       </c>
@@ -12248,7 +12277,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="11" t="s">
         <v>573</v>
       </c>
@@ -12262,7 +12291,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
         <v>574</v>
       </c>
@@ -12276,7 +12305,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="11" t="s">
         <v>575</v>
       </c>
@@ -12290,7 +12319,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="11" t="s">
         <v>576</v>
       </c>
@@ -12304,7 +12333,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="11" t="s">
         <v>577</v>
       </c>
@@ -12316,6 +12345,17 @@
       </c>
       <c r="D575" s="12" t="s">
         <v>910</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D576" s="16" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -12329,23 +12369,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -12359,2827 +12399,2827 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="2"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="2"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="2"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="2"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="2"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
     </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
     </row>
-    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
     </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
     </row>
-    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
     </row>
-    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
     </row>
-    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
     </row>
-    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
     </row>
-    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
     </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
     </row>
-    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
     </row>
-    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
     </row>
-    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
     </row>
-    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
     </row>
-    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
     </row>
-    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
     </row>
-    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
     </row>
-    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
     </row>
-    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
     </row>
-    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
     </row>
-    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
     </row>
-    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
     </row>
-    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
     </row>
-    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
     </row>
-    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
     </row>
-    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
     </row>
-    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
     </row>
-    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
     </row>
-    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
     </row>
-    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
     </row>
-    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
     </row>
-    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
     </row>
-    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
     </row>
-    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
     </row>
-    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
     </row>
-    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
     </row>
-    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
     </row>
-    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
     </row>
-    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
     </row>
-    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
     </row>
-    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
     </row>
-    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
     </row>
-    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
     </row>
-    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
     </row>
-    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
     </row>
-    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
     </row>
-    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
     </row>
-    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
     </row>
-    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
     </row>
-    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
     </row>
-    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
     </row>
-    <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
     </row>
-    <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
     </row>
-    <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
     </row>
-    <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
     </row>
-    <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
     </row>
-    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
     </row>
-    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
     </row>
-    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
     </row>
-    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
     </row>
-    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
     </row>
-    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
     </row>
-    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
     </row>
-    <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
     </row>
-    <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
     </row>
-    <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
     </row>
-    <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
     </row>
-    <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
     </row>
-    <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
     </row>
-    <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
     </row>
-    <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
     </row>
-    <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
     </row>
-    <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
     </row>
-    <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
     </row>
-    <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
     </row>
-    <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
     </row>
-    <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
     </row>
-    <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
     </row>
-    <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
     </row>
-    <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
     </row>
-    <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
     </row>
-    <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
     </row>
-    <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
     </row>
-    <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
     </row>
-    <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
     </row>
-    <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
     </row>
-    <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
     </row>
-    <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
     </row>
-    <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
     </row>
-    <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
     </row>
-    <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
     </row>
-    <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
     </row>
-    <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
     </row>
-    <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
     </row>
-    <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
     </row>
-    <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
     </row>
-    <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
     </row>
-    <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
     </row>
-    <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
     </row>
-    <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
     </row>
-    <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
     </row>
-    <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
     </row>
-    <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
     </row>
-    <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
     </row>
-    <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
     </row>
-    <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
     </row>
-    <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
     </row>
-    <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
     </row>
-    <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
     </row>
-    <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
     </row>
-    <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
     </row>
-    <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
     </row>
-    <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
     </row>
-    <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
     </row>
-    <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
     </row>
-    <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
     </row>
-    <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
     </row>
-    <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
     </row>
-    <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
     </row>
-    <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
     </row>
-    <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
     </row>
-    <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
     </row>
-    <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
     </row>
-    <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
     </row>
-    <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
     </row>
-    <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
     </row>
-    <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>

--- a/R/data/dictionaries/outcome/WP4/1_0/1_0_non_repeated.xlsx
+++ b/R/data/dictionaries/outcome/WP4/1_0/1_0_non_repeated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="1210">
   <si>
     <t>name</t>
   </si>
@@ -3512,13 +3512,151 @@
   </si>
   <si>
     <t>Maternal history of eczema before pregnancy (of index child)</t>
+  </si>
+  <si>
+    <t>allergy_inh_m</t>
+  </si>
+  <si>
+    <t>Maternal history of inhalant allergy before pregnancy (of index child)</t>
+  </si>
+  <si>
+    <t>allergy_food_m</t>
+  </si>
+  <si>
+    <t>Maternal history of food allergy before pregnancy (of index child)</t>
+  </si>
+  <si>
+    <t>allergy_any_m</t>
+  </si>
+  <si>
+    <t>Maternal history of any allergy before pregnancy (of index child)</t>
+  </si>
+  <si>
+    <t>whe_ever</t>
+  </si>
+  <si>
+    <t>Wheezing between ages 0-4 years</t>
+  </si>
+  <si>
+    <t>whe_ever2</t>
+  </si>
+  <si>
+    <t>Wheezing between ages 0-2 years</t>
+  </si>
+  <si>
+    <t>whe_ever4</t>
+  </si>
+  <si>
+    <t>Wheezing between ages 2-4 years</t>
+  </si>
+  <si>
+    <t>whe_ever5_10</t>
+  </si>
+  <si>
+    <t>Wheezing between ages 5-10 years</t>
+  </si>
+  <si>
+    <t>asthma_ever_CHICOS</t>
+  </si>
+  <si>
+    <t>School age asthma according to CHICOS definition</t>
+  </si>
+  <si>
+    <t>asthma_ever_MeDALL</t>
+  </si>
+  <si>
+    <t>Ever diagnosis of asthma according to MeDALL definition</t>
+  </si>
+  <si>
+    <t>asthma_current_MeDALL</t>
+  </si>
+  <si>
+    <t>Current asthma (MeDALL)</t>
+  </si>
+  <si>
+    <t>asthma_current_CHICOS</t>
+  </si>
+  <si>
+    <t>Current asthma (ISAAC)</t>
+  </si>
+  <si>
+    <t>food_all_ever</t>
+  </si>
+  <si>
+    <t>Ever doctor diagnosis of food allergy</t>
+  </si>
+  <si>
+    <t>inh_all_ever</t>
+  </si>
+  <si>
+    <t>Ever doctor diagnosis of inhalant allergy</t>
+  </si>
+  <si>
+    <t>all_ever</t>
+  </si>
+  <si>
+    <t>Ever doctor diagnosis of allergy, type of allergen unspecified</t>
+  </si>
+  <si>
+    <t>urticaria</t>
+  </si>
+  <si>
+    <t>Ever diagnosis of urticaria</t>
+  </si>
+  <si>
+    <t>anaphylaxis</t>
+  </si>
+  <si>
+    <t>Ever diagnosis of anaphylactic shock</t>
+  </si>
+  <si>
+    <t>eczema_ever</t>
+  </si>
+  <si>
+    <t>Ever doctor-diagnosis of eczema</t>
+  </si>
+  <si>
+    <t>asthma_adult</t>
+  </si>
+  <si>
+    <t>Ever diagnosis of asthma in adulthood based on physician diagnosis</t>
+  </si>
+  <si>
+    <t>COPD_adult_GOLD</t>
+  </si>
+  <si>
+    <t>Ever diagnosis of COPD in adulthood based on GOLD criteria</t>
+  </si>
+  <si>
+    <t>COPD_adult_LLN</t>
+  </si>
+  <si>
+    <t>Ever diagnosis of COPD in adulthood based on lower limit of normal (LLN)</t>
+  </si>
+  <si>
+    <t>COPD_adult_diagnosis</t>
+  </si>
+  <si>
+    <t>Ever diagnosis of COPD in adulthood based on physician diagnosis</t>
+  </si>
+  <si>
+    <t>pets_pregn</t>
+  </si>
+  <si>
+    <t>Furry pet (dogs, cats, rodents) ownership in child's household during pregnancy.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3558,6 +3696,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3643,7 +3786,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3662,6 +3805,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4127,10 +4276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG576"/>
+  <dimension ref="A1:BG598"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A561" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C578" sqref="C578"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G578" sqref="G578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12358,6 +12507,270 @@
         <v>1163</v>
       </c>
     </row>
+    <row r="577" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C577" s="4"/>
+      <c r="D577" s="16" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C578" s="4"/>
+      <c r="D578" s="16" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C579" s="4"/>
+      <c r="D579" s="16" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C580" s="2"/>
+      <c r="D580" s="17" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C581" s="2"/>
+      <c r="D581" s="17" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C582" s="2"/>
+      <c r="D582" s="17" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C583" s="2"/>
+      <c r="D583" s="17" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C584" s="4"/>
+      <c r="D584" s="17" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C585" s="4"/>
+      <c r="D585" s="17" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C586" s="4"/>
+      <c r="D586" s="16" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C587" s="4"/>
+      <c r="D587" s="16" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C588" s="4"/>
+      <c r="D588" s="17" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C589" s="4"/>
+      <c r="D589" s="17" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C590" s="4"/>
+      <c r="D590" s="17" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C591" s="4"/>
+      <c r="D591" s="16" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C592" s="4"/>
+      <c r="D592" s="16" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C593" s="4"/>
+      <c r="D593" s="17" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C594" s="4"/>
+      <c r="D594" s="18" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C595" s="4"/>
+      <c r="D595" s="18" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C596" s="4"/>
+      <c r="D596" s="18" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C597" s="4"/>
+      <c r="D597" s="18" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C598" s="4"/>
+      <c r="D598" s="18" t="s">
+        <v>1207</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -12372,16 +12785,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D472"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="14.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -12400,280 +12810,648 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
